--- a/outputs/FIJI3.xlsx
+++ b/outputs/FIJI3.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to complete the course and plan their term, and finding the syllabus would provide comprehensive information about the course requirements, schedule, and expectations. The image clearly shows a link to the "Syllabus" in the left pane and mentions the importance of the syllabus in the course introduction, which aligns with ABI's comprehensive information processing style to gather all necessary information before proceeding.</t>
+Why: The syllabus is a critical document that outlines the course structure, requirements, and schedule. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would likely consider finding the syllabus as an essential step toward planning their term and understanding what needs to be done to complete the course.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page clearly shows a link to the "Syllabus" in the left pane, which is prominently labeled and easy to locate. Additionally, the course introduction text explicitly instructs students to click on the Syllabus link in the left pane and mentions its importance. This clear instruction aligns with ABI's need for process-oriented learning and leverages their motivations and comprehensive information processing style. Therefore, ABI will know what to do at this step and the page is good enough for ABI to take this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly indicates that the syllabus is an important document to read, as it contains a lot of important information. The word "Syllabus" is highlighted and mentioned multiple times, both in the main content area and in the left navigation pane. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, making it clear that finding the syllabus is a necessary step.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Syllabus" link, ABI lands on a page that is clearly labeled "Course Syllabus" and contains detailed information about the weekly schedule, assignments, and other relevant course materials. This provides ABI with comprehensive information necessary to plan their term effectively. The structured and detailed presentation of the syllabus aligns with ABI's need for comprehensive information processing. Additionally, the clear labeling and organized layout will help reinforce ABI's confidence in their ability to navigate and understand the course requirements, thus affirming that they did the right thing and are making progress toward their goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the "Syllabus" link, Abi lands on a page titled "Course Syllabus," which clearly indicates that they are in the right place. The page provides detailed information, including a weekly schedule and links to various syllabus-related documents. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the page offers a clear and detailed overview of what is required to complete the course.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: To effectively plan their term, understanding the summary of activities and deadlines is crucial. ABI is motivated to complete the course and needs comprehensive information to do so. The syllabus page provides a detailed weekly schedule, which is essential for ABI to organize and plan their term. This aligns with ABI's comprehensive information processing style and helps them gather all necessary details to achieve their overall goal.</t>
+Why: To plan their term effectively, Abi needs to know the activities and deadlines for the course. A summary of activities and deadlines is essential for understanding the course requirements and managing time effectively. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding this summary as a crucial step toward achieving the overall use case of planning their term.</t>
         </is>
       </c>
     </row>
@@ -461,17 +461,17 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page clearly labels the section "Course Summary," which is prominently visible upon scrolling. ABI, who uses a comprehensive information processing style, will likely read through the page to find relevant information. The "Syllabus – Weekly schedule" section is explicitly displayed and organized in a tabular format, making it easy to understand and follow. This structured presentation aligns with ABI's need for clear, detailed information, and the page is straightforward enough to boost ABI's confidence in taking the action of scrolling down and reading through the summary.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page is well-structured and clearly labeled, with a "Course Summary" section that is prominently displayed. Abi's motivation to accomplish tasks and their comprehensive information processing style will guide them to scroll down and read through the "Course Summary" to find the summary of activities and deadlines. The layout and headings make it clear what information is available, making it easy for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down to the "Course Summary" section, ABI will see a detailed weekly schedule titled "Syllabus – Weekly schedule." This section lists all the activities and deadlines in a clear, organized table format. The comprehensive presentation of information will enable ABI to understand the course structure, deadlines, and required activities, making them confident that they are making progress toward their goal of planning their term. This aligns with ABI's motivations to complete the course and their need for detailed, structured information.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the "Syllabus – Weekly schedule" provides a detailed list of activities and deadlines, it may not be immediately clear to Abi that this is the comprehensive summary they need. The page contains multiple sections and links, which could be overwhelming. Abi's comprehensive information processing style means they need to be sure they have all the necessary information, and their low computer self-efficacy might make them doubt if they have found everything they need. The presence of additional links and documents might make Abi unsure if they have all the information required to plan their term effectively.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: To complete the course successfully and plan their term, ABI would need to know what tools are required for the course. This is a crucial step in ensuring they are prepared and can complete the assignments and projects effectively. The "Tools" section is prominently listed at the top of the syllabus page, indicating its importance. This aligns with ABI's motivation to complete the course and their comprehensive information processing style, as they would want to gather all necessary details, including the tools to be installed or set up, to be fully prepared.</t>
+Why: To complete the course successfully, Abi would need to ensure they have all the necessary tools installed and set up. This is a fundamental step in preparing for the course, as having the right tools is essential for completing assignments and projects. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would likely consider finding a list of required tools as a crucial step toward achieving the overall use case of planning their term.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Tools" tab is prominently located at the top of the page, making it easy to notice. Given ABI's comprehensive information processing style, they are likely to read through and explore the tabs to gather all necessary information. The label "Tools" is clear and self-explanatory, indicating that clicking on it will provide information about the tools required for the course. This straightforward labeling and positioning will help ABI confidently take this action, ensuring they know what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Tools" tab is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would likely recognize that clicking on the "Tools" tab is a necessary step to find the list of tools required for the course. The page layout and labeling provide sufficient guidance for Abi to take this action confidently.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Tools" tab, ABI will land on a page that provides detailed information about the various tools required for the course. The page lists tools such as Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it, along with descriptions and instructions for each. This comprehensive and clear presentation of information aligns with ABI's motivation to complete the course and their need for detailed, structured information. The clear headings and descriptions will help ABI feel confident that they are making progress toward their goal and have obtained all the necessary information regarding the tools to be installed or set up for the course.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the "Tools" tab, Abi lands on a page that provides a detailed list of tools required for the course, including Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. Each tool is described with instructions on how to set it up. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the page offers clear and detailed information about the tools needed for the course. Abi will know they are making progress toward their goal and have the necessary information to proceed.</t>
         </is>
       </c>
     </row>

--- a/outputs/FIJI3.xlsx
+++ b/outputs/FIJI3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The syllabus is a critical document that outlines the course structure, requirements, and schedule. Given Abi's motivation to accomplish tasks and plan their term, they would likely consider finding the syllabus as an essential step. Additionally, Abi's comprehensive information processing style would lead them to seek out the syllabus to gather all necessary information about the course.</t>
+Why: The syllabus is a crucial document for understanding the course structure, requirements, and schedule, which aligns with Abi's motivation to plan their term effectively. Additionally, the page explicitly mentions the importance of reading the syllabus and provides a clear link to it, which supports Abi's comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly indicates that the syllabus is an important document to read, as it contains a lot of important information. The word "Syllabus" is highlighted and mentioned multiple times, both in the main content area and in the left navigation pane. This aligns with Abi's motivation to accomplish tasks and gather comprehensive information. The clear instructions and emphasis on the syllabus make it easy for Abi to know what to do at this step.</t>
+Why: The page clearly instructs the student to click on "Syllabus" in the left pane to read through the syllabus, which is essential for planning the term. This aligns with Abi's motivation to understand what needs to be done to complete the course. Additionally, the explicit mention and clear link to the syllabus support Abi's comprehensive information processing style, making it straightforward for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the Syllabus link, Abi lands on a page titled "Course Syllabus," which clearly indicates that they are in the right place. The page provides detailed information, including a weekly schedule of readings and projects, which aligns with Abi's motivation to plan their term and gather comprehensive information. The presence of additional links and documents related to the syllabus further supports Abi's information processing style, allowing them to access all necessary details to understand the course requirements and schedule.</t>
+Why: Upon landing on the Syllabus page, Abi will see a detailed weekly schedule and other relevant links, such as the syllabus PDF and schedule of assignments and quizzes. This comprehensive information aligns with Abi's motivation to plan their term and supports their information processing style by providing all necessary details in an organized manner. Abi will know they are making progress toward their goal as the page provides clear and detailed information about the course requirements and schedule.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: To plan their term effectively, Abi needs to know the activities and deadlines for the course. The summary of activities and deadlines is crucial for understanding the course requirements and managing their time. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding this summary as an essential step toward achieving their overall goal of planning their term.</t>
+Why: To plan their term effectively, Abi needs to understand the activities and deadlines for the course. The summary of activities and deadlines is essential for this planning, aligning with Abi's motivation to complete the course successfully. Additionally, Abi's comprehensive information processing style means they would naturally look for a detailed overview of what is expected throughout the term, which is provided in the syllabus.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page is well-structured and clearly labeled, with a "Course Summary" section that is prominently displayed. The "Syllabus – Weekly schedule" table provides a detailed breakdown of activities and deadlines, which aligns with Abi's motivation to plan their term and gather comprehensive information. The layout and labeling make it easy for Abi to know that they need to scroll down to find the summary of activities and deadlines. This aligns with Abi's information processing style, as they prefer to gather all necessary information comprehensively.</t>
+Why: The page is well-organized and clearly labeled, with a "Course Summary" section that is easily visible. Abi is motivated to find the summary of activities and deadlines to plan their term, and the layout of the page supports this goal. The comprehensive information processing style of Abi means they will naturally scroll down to read through the detailed weekly schedule provided, which is clearly presented on the page.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After scrolling down to the "Course Summary" section, Abi will see a detailed "Syllabus – Weekly schedule" table that outlines the activities and deadlines for each week. This table provides comprehensive information about what is due and when, which aligns with Abi's motivation to plan their term and gather all necessary details. The clear and structured presentation of the information will help Abi know that they are making progress toward their goal and have the information they need.</t>
+Why: After scrolling down to the "Course Summary" and reading through it, Abi will see a detailed weekly schedule of activities and deadlines. This aligns with Abi's motivation to plan their term effectively and ensures they are making progress toward their goal. The comprehensive information provided in the schedule supports Abi's information processing style, giving them all the necessary details to understand what is due and when, confirming that they did the right thing and are on the right track.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: To complete the course successfully, Abi will need to have the necessary tools installed and set up. This is a fundamental step in ensuring they can participate in all course activities and complete assignments. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding a list of required tools as an essential step toward achieving their overall goal of planning their term and being prepared for the course.</t>
+Why: To complete the course successfully, Abi needs to ensure they have all the necessary tools installed and set up. This is a critical step in planning their term, as having the right tools is essential for completing assignments and projects. Abi's motivation to plan their term effectively and their comprehensive information processing style would lead them to look for a list of required tools as part of their preparation. The "Tools" link on the syllabus page indicates where this information can be found, aligning with Abi's goal.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Tools" tab is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify it as the next step. Given Abi's motivation to gather all necessary information to complete the course and their comprehensive information processing style, they would recognize that clicking on the "Tools" tab is a logical step to find the list of tools required for the course. The page layout and labeling provide clear guidance, making it straightforward for Abi to take this action.</t>
+Why: The "Tools" tab is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify and click on it. Abi is motivated to find the list of tools to be installed or set up for the course, as this is essential for completing the course successfully. The clear labeling and placement of the "Tools" tab align with Abi's comprehensive information processing style, making it straightforward for Abi to know what to do at this step and take the action confidently.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Tools" tab, Abi lands on a page that provides a detailed list of tools required for the course, including Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. Each tool is described with instructions on how to access and set it up. This aligns with Abi's motivation to gather all necessary information to complete the course and their comprehensive information processing style. The clear and structured presentation of the tools and setup instructions will help Abi know that they are making progress toward their goal and have the information they need.</t>
+Why: After clicking on the "Tools" tab, Abi will land on a page that provides a detailed list of tools required for the course, including Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. This comprehensive list aligns with Abi's motivation to find and set up the necessary tools to complete the course. The detailed descriptions and instructions for each tool support Abi's information processing style, ensuring they have all the information needed to proceed. Abi will know they did the right thing and are making progress toward their goal as the page provides clear and detailed information about the tools required for the course.</t>
         </is>
       </c>
     </row>
